--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_DTBeforeHours_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_DTBeforeHours_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="94">
   <si>
     <t>ModuleName</t>
   </si>
@@ -234,18 +234,12 @@
     <t>EditSaveName</t>
   </si>
   <si>
-    <t>02:35:55 PM</t>
-  </si>
-  <si>
     <t>04-05-2024</t>
   </si>
   <si>
     <t>04-05-2024 05:29:49 PM</t>
   </si>
   <si>
-    <t>ET163</t>
-  </si>
-  <si>
     <t>ET164</t>
   </si>
   <si>
@@ -261,25 +255,55 @@
     <t>00</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>10-05-2024</t>
-  </si>
-  <si>
-    <t>13-05-2024 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>05:00:00 AM</t>
-  </si>
-  <si>
-    <t>ET278</t>
-  </si>
-  <si>
-    <t>tskNT_ExecuteTask_DTBeforeHours</t>
-  </si>
-  <si>
     <t>05:00:00 PM</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>20-07-2024</t>
+  </si>
+  <si>
+    <t>23-07-2024 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>10:00:00PM</t>
+  </si>
+  <si>
+    <t>ET2694</t>
+  </si>
+  <si>
+    <t>ET2695</t>
+  </si>
+  <si>
+    <t>ET2696</t>
+  </si>
+  <si>
+    <t>ET_DTBeforeHours</t>
+  </si>
+  <si>
+    <t>22-07-2024</t>
+  </si>
+  <si>
+    <t>25-07-2024 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET2710</t>
+  </si>
+  <si>
+    <t>ET2711</t>
+  </si>
+  <si>
+    <t>ET2713</t>
+  </si>
+  <si>
+    <t>ET2714</t>
+  </si>
+  <si>
+    <t>ET2715</t>
+  </si>
+  <si>
+    <t>ET2724</t>
   </si>
 </sst>
 </file>
@@ -638,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -784,13 +808,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -825,7 +849,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -834,10 +858,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="1">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s" s="1">
         <v>81</v>
-      </c>
-      <c r="O2" t="s" s="1">
-        <v>85</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -873,7 +897,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -884,20 +908,20 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>83</v>
+      <c r="AG2" t="s" s="1">
+        <v>90</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" t="s" s="1">
         <v>78</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" t="s" s="1">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -1040,13 +1064,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1081,7 +1105,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1090,10 +1114,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>85</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1129,7 +1153,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1143,16 +1167,16 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -1285,13 +1309,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
@@ -1326,7 +1350,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1335,10 +1359,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>85</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1374,7 +1398,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1388,19 +1412,19 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="7">
         <v>0</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1416,7 +1440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -1561,13 +1585,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1602,7 +1626,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1611,10 +1635,10 @@
         <v>33</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1650,7 +1674,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1664,16 +1688,16 @@
         <v>50</v>
       </c>
       <c r="AG2" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
